--- a/doc/checklist/checklist.xlsx
+++ b/doc/checklist/checklist.xlsx
@@ -185,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -426,29 +426,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -457,186 +457,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -707,7 +527,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -760,6 +580,186 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -880,19 +880,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A5:H34" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A5:H34" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A5:H34"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="TASK" dataDxfId="25"/>
-    <tableColumn id="8" name="OWNER" dataDxfId="24"/>
-    <tableColumn id="7" name="PRIORITY" dataDxfId="23"/>
-    <tableColumn id="4" name="START" dataDxfId="22"/>
-    <tableColumn id="5" name="END" dataDxfId="21"/>
-    <tableColumn id="2" name="% COMPLETE" dataDxfId="20" dataCellStyle="Percent"/>
-    <tableColumn id="3" name="DONE" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="1" name="TASK" dataDxfId="7"/>
+    <tableColumn id="8" name="OWNER" dataDxfId="6"/>
+    <tableColumn id="7" name="PRIORITY" dataDxfId="5"/>
+    <tableColumn id="4" name="START" dataDxfId="4"/>
+    <tableColumn id="5" name="END" dataDxfId="3"/>
+    <tableColumn id="2" name="% COMPLETE" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="DONE" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(F6&gt;=1,1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="NOTES" dataDxfId="18"/>
+    <tableColumn id="6" name="NOTES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1197,8 +1197,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1">
@@ -1210,7 +1210,7 @@
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="31">
@@ -1361,16 +1361,16 @@
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="32">
         <v>43448</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <v>43450</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -1504,16 +1504,16 @@
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="32">
         <v>43450</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="33">
         <v>43453</v>
       </c>
       <c r="F16" s="15">
         <v>1</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="34">
         <v>1</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1528,10 +1528,10 @@
       <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="32">
         <v>43450</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <v>43453</v>
       </c>
       <c r="F17" s="15">
@@ -1579,8 +1579,7 @@
         <v>0.9</v>
       </c>
       <c r="G19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>44</v>
@@ -1606,8 +1605,7 @@
         <v>0.9</v>
       </c>
       <c r="G20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>44</v>
@@ -1623,18 +1621,17 @@
       <c r="C21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="36">
         <v>43453</v>
       </c>
       <c r="E21" s="17">
         <v>43455</v>
       </c>
       <c r="F21" s="15">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G21" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>44</v>
@@ -1648,18 +1645,17 @@
       <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="37">
         <v>43453</v>
       </c>
       <c r="E22" s="17">
         <v>43455</v>
       </c>
       <c r="F22" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="G22" s="35">
-        <f>IF(F22&gt;=1,1,0)</f>
-        <v>0</v>
+        <v>0.9</v>
+      </c>
+      <c r="G22" s="34">
+        <v>1</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>44</v>
@@ -1673,18 +1669,17 @@
       <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="37">
         <v>43453</v>
       </c>
       <c r="E23" s="17">
         <v>43455</v>
       </c>
       <c r="F23" s="15">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>44</v>
@@ -1715,18 +1710,17 @@
       <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="36">
         <v>43455</v>
       </c>
       <c r="E25" s="17">
         <v>43456</v>
       </c>
       <c r="F25" s="15">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G25" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>45</v>
@@ -1742,18 +1736,17 @@
       <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>43454</v>
       </c>
       <c r="E26" s="17">
         <v>43457</v>
       </c>
       <c r="F26" s="15">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>45</v>
@@ -1767,18 +1760,17 @@
       <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <v>43454</v>
       </c>
       <c r="E27" s="17">
         <v>43457</v>
       </c>
       <c r="F27" s="15">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G27" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>45</v>
@@ -1794,18 +1786,17 @@
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>43454</v>
       </c>
       <c r="E28" s="17">
         <v>43457</v>
       </c>
       <c r="F28" s="15">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>45</v>
@@ -1819,18 +1810,17 @@
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>43454</v>
       </c>
       <c r="E29" s="17">
         <v>43457</v>
       </c>
       <c r="F29" s="15">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G29" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>45</v>
@@ -1861,7 +1851,7 @@
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>43458</v>
       </c>
       <c r="E31" s="17">
@@ -1888,10 +1878,10 @@
       <c r="C32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>43458</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="36">
         <v>43458</v>
       </c>
       <c r="F32" s="15">
@@ -1915,18 +1905,17 @@
       <c r="C33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>43458</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="36">
         <v>43458</v>
       </c>
       <c r="F33" s="15">
         <v>0.9</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>46</v>
@@ -1942,25 +1931,24 @@
       <c r="C34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>43458</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="36">
         <v>43458</v>
       </c>
       <c r="F34" s="15">
         <v>0.9</v>
       </c>
       <c r="G34" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="39"/>
+      <c r="A38" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1981,13 +1969,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C11 C19:C23 C25:C29 C31:C34 C13:C17">
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="30" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2006,13 +1994,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="26" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2031,13 +2019,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2056,13 +2044,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2081,13 +2069,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2106,13 +2094,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2216,6 +2204,22 @@
           <xm:sqref>F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0AB66C6B-CEF8-44DA-8B36-9DD9B5F1F6B4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="0"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="33" id="{4F21F2DD-B176-45C2-9F70-C6C65248398E}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -2311,22 +2315,6 @@
           <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0AB66C6B-CEF8-44DA-8B36-9DD9B5F1F6B4}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="0"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="5" id="{E0EC8312-FEFB-4EEC-90A4-685A3475B895}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">

--- a/doc/checklist/checklist.xlsx
+++ b/doc/checklist/checklist.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="ProjectTaskList" sheetId="7" r:id="rId1"/>
+    <sheet name="checklist" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectTaskList!$A:$K</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">checklist!$A:$K</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2017 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"project-task-list-template.xlsx"</definedName>
@@ -69,9 +69,6 @@
     <t>END</t>
   </si>
   <si>
-    <t>PROJECT TASK LIST</t>
-  </si>
-  <si>
     <t>Project End</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Has reached the customer's requirements</t>
+  </si>
+  <si>
+    <t>CHECKLIST</t>
   </si>
 </sst>
 </file>
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1186,13 +1186,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="8"/>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1217,7 +1217,7 @@
         <v>43445</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="31">
         <v>43458</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
@@ -1267,17 +1267,17 @@
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="28">
-        <f t="shared" ref="G6:G34" si="0">IF(F6&gt;=1,1,0)</f>
+        <f t="shared" ref="G6:G32" si="0">IF(F6&gt;=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1295,15 +1295,15 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -1322,15 +1322,15 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
@@ -1348,15 +1348,15 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1374,15 +1374,15 @@
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="33.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1400,12 +1400,12 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="13" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -1441,15 +1441,15 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -1467,15 +1467,15 @@
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
@@ -1493,13 +1493,13 @@
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
@@ -1517,13 +1517,13 @@
         <v>1</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1541,12 +1541,12 @@
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="19" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -1582,15 +1582,15 @@
         <v>1</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -1608,15 +1608,15 @@
         <v>1</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>5</v>
@@ -1634,13 +1634,13 @@
         <v>1</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
@@ -1658,13 +1658,13 @@
         <v>1</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>5</v>
@@ -1682,12 +1682,12 @@
         <v>1</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A24" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>7</v>
@@ -1723,15 +1723,15 @@
         <v>1</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>6</v>
@@ -1749,13 +1749,13 @@
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>6</v>
@@ -1773,15 +1773,15 @@
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
@@ -1799,13 +1799,13 @@
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>5</v>
@@ -1823,12 +1823,12 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="31" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>5</v>
@@ -1865,15 +1865,15 @@
         <v>1</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>6</v>
@@ -1892,15 +1892,15 @@
         <v>1</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>6</v>
@@ -1918,15 +1918,15 @@
         <v>1</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="7" customFormat="1" ht="22.5" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>6</v>
@@ -1944,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
